--- a/Code/Results/Cases/Case_4_154/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_154/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.521237922309069</v>
+        <v>1.260887446824029</v>
       </c>
       <c r="C2">
-        <v>0.4177083834782422</v>
+        <v>0.199249073379633</v>
       </c>
       <c r="D2">
-        <v>0.1997069073076574</v>
+        <v>0.07823181986877614</v>
       </c>
       <c r="E2">
-        <v>0.03853651385864354</v>
+        <v>0.09758177810482982</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000796076795851105</v>
+        <v>0.002463313228403287</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1495931522861724</v>
+        <v>0.1899887431010754</v>
       </c>
       <c r="M2">
-        <v>0.4213394983393144</v>
+        <v>0.2663511255113491</v>
       </c>
       <c r="N2">
-        <v>0.7644480074238285</v>
+        <v>1.55301995052443</v>
       </c>
       <c r="O2">
-        <v>2.803284578847496</v>
+        <v>4.054209819659405</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.190533220325278</v>
+        <v>1.171044405421299</v>
       </c>
       <c r="C3">
-        <v>0.3754992647957351</v>
+        <v>0.1854774821674425</v>
       </c>
       <c r="D3">
-        <v>0.1729239348752145</v>
+        <v>0.07099981640112674</v>
       </c>
       <c r="E3">
-        <v>0.03961041176053692</v>
+        <v>0.09825067771945184</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008013678726696465</v>
+        <v>0.00246683245833057</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1355290211986215</v>
+        <v>0.1874107202957163</v>
       </c>
       <c r="M3">
-        <v>0.3677862004346437</v>
+        <v>0.2525465544461696</v>
       </c>
       <c r="N3">
-        <v>0.8109086723836025</v>
+        <v>1.571932313769199</v>
       </c>
       <c r="O3">
-        <v>2.61604797043745</v>
+        <v>4.03968725914379</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.988828771000954</v>
+        <v>1.116318715562272</v>
       </c>
       <c r="C4">
-        <v>0.349581908761607</v>
+        <v>0.1769469899430902</v>
       </c>
       <c r="D4">
-        <v>0.1566729477646902</v>
+        <v>0.06659608434817699</v>
       </c>
       <c r="E4">
-        <v>0.04030436113896041</v>
+        <v>0.09868527736662824</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008047212394672578</v>
+        <v>0.002469109539887057</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1270741087377445</v>
+        <v>0.1859212253667764</v>
       </c>
       <c r="M4">
-        <v>0.3351943972461839</v>
+        <v>0.2441849015072748</v>
       </c>
       <c r="N4">
-        <v>0.8407019506240676</v>
+        <v>1.584142274297843</v>
       </c>
       <c r="O4">
-        <v>2.507160216219432</v>
+        <v>4.033347244086116</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.906922211574425</v>
+        <v>1.09412854058948</v>
       </c>
       <c r="C5">
-        <v>0.3390152050032498</v>
+        <v>0.1734520390257757</v>
       </c>
       <c r="D5">
-        <v>0.1500931935512</v>
+        <v>0.06481071855714049</v>
       </c>
       <c r="E5">
-        <v>0.04059574862902293</v>
+        <v>0.09886839737826003</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008061146865725967</v>
+        <v>0.002470066794798043</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1236707192706348</v>
+        <v>0.1853377690616043</v>
       </c>
       <c r="M5">
-        <v>0.3219771265948026</v>
+        <v>0.2408063511415222</v>
       </c>
       <c r="N5">
-        <v>0.8531521675147982</v>
+        <v>1.589268168265596</v>
       </c>
       <c r="O5">
-        <v>2.464211472032162</v>
+        <v>4.031410647027315</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.89333778926553</v>
+        <v>1.090450605305278</v>
       </c>
       <c r="C6">
-        <v>0.3372601607741643</v>
+        <v>0.1728705774511639</v>
       </c>
       <c r="D6">
-        <v>0.1490030352165803</v>
+        <v>0.06451481358588751</v>
       </c>
       <c r="E6">
-        <v>0.04064464984579641</v>
+        <v>0.09889916800542209</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008063477108363718</v>
+        <v>0.002470227520011855</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1231080352465241</v>
+        <v>0.1852423084303254</v>
       </c>
       <c r="M6">
-        <v>0.3197860365505321</v>
+        <v>0.2402470939986472</v>
       </c>
       <c r="N6">
-        <v>0.8552379339225915</v>
+        <v>1.590128391285493</v>
       </c>
       <c r="O6">
-        <v>2.457162941021551</v>
+        <v>4.031128126172547</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.987723041201491</v>
+        <v>1.116019000688254</v>
       </c>
       <c r="C7">
-        <v>0.3494394297595278</v>
+        <v>0.176899931455651</v>
       </c>
       <c r="D7">
-        <v>0.1565840459865768</v>
+        <v>0.06657196913280927</v>
       </c>
       <c r="E7">
-        <v>0.04030825620491574</v>
+        <v>0.09868772261168868</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008047399221669336</v>
+        <v>0.002469122331048571</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1270280434231594</v>
+        <v>0.1859132613743668</v>
       </c>
       <c r="M7">
-        <v>0.3350158959976923</v>
+        <v>0.2441392200543504</v>
       </c>
       <c r="N7">
-        <v>0.840868618347832</v>
+        <v>1.584210795677532</v>
       </c>
       <c r="O7">
-        <v>2.506575362117957</v>
+        <v>4.033318508038235</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.406899831411749</v>
+        <v>1.229819029629994</v>
       </c>
       <c r="C8">
-        <v>0.4031517287236284</v>
+        <v>0.1945161681263698</v>
       </c>
       <c r="D8">
-        <v>0.1904281136839643</v>
+        <v>0.07573056603993678</v>
       </c>
       <c r="E8">
-        <v>0.03889955960286651</v>
+        <v>0.09780746133108598</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007978798248311304</v>
+        <v>0.002464502583775546</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1447042984137639</v>
+        <v>0.1890804698584816</v>
       </c>
       <c r="M8">
-        <v>0.4028086174201064</v>
+        <v>0.2615676317610536</v>
       </c>
       <c r="N8">
-        <v>0.7801991394899321</v>
+        <v>1.559416848011971</v>
       </c>
       <c r="O8">
-        <v>2.737399641685386</v>
+        <v>4.048667003981052</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.242058944050996</v>
+        <v>1.456436650936894</v>
       </c>
       <c r="C9">
-        <v>0.5087226992281728</v>
+        <v>0.2284673569338054</v>
       </c>
       <c r="D9">
-        <v>0.2586311259733804</v>
+        <v>0.09398531071138905</v>
       </c>
       <c r="E9">
-        <v>0.03641590378076232</v>
+        <v>0.09627042222974502</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007852276926783681</v>
+        <v>0.002456361598726715</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.180962242336129</v>
+        <v>0.196031707576438</v>
       </c>
       <c r="M9">
-        <v>0.5384841391971307</v>
+        <v>0.2966491485530725</v>
       </c>
       <c r="N9">
-        <v>0.6717132160937425</v>
+        <v>1.51554039127795</v>
       </c>
       <c r="O9">
-        <v>3.243301746240888</v>
+        <v>4.099263395914733</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.867397516184951</v>
+        <v>1.625028815287237</v>
       </c>
       <c r="C10">
-        <v>0.5868145383947478</v>
+        <v>0.2530491241708717</v>
       </c>
       <c r="D10">
-        <v>0.3103061023365257</v>
+        <v>0.1075825549869762</v>
       </c>
       <c r="E10">
-        <v>0.03476762757445018</v>
+        <v>0.09525586136941655</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007763758216941358</v>
+        <v>0.00245093444353396</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2088183770311645</v>
+        <v>0.2015897316295252</v>
       </c>
       <c r="M10">
-        <v>0.6404885735514796</v>
+        <v>0.3229734278406227</v>
       </c>
       <c r="N10">
-        <v>0.5990544521012602</v>
+        <v>1.486198424283351</v>
       </c>
       <c r="O10">
-        <v>3.655043962709044</v>
+        <v>4.149015209203526</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.155343384598098</v>
+        <v>1.702179869630299</v>
       </c>
       <c r="C11">
-        <v>0.6225499454928922</v>
+        <v>0.2641535249395588</v>
       </c>
       <c r="D11">
-        <v>0.3342633883118395</v>
+        <v>0.1138098922097441</v>
       </c>
       <c r="E11">
-        <v>0.03405765054971299</v>
+        <v>0.09481908779182358</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007724345399384694</v>
+        <v>0.00244858455547759</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2218147652029074</v>
+        <v>0.2042161171225132</v>
       </c>
       <c r="M11">
-        <v>0.6875580442851472</v>
+        <v>0.3350683127249425</v>
       </c>
       <c r="N11">
-        <v>0.5676889289903606</v>
+        <v>1.473478846064667</v>
       </c>
       <c r="O11">
-        <v>3.85290595106153</v>
+        <v>4.174398501286362</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.26496340252811</v>
+        <v>1.73146027963287</v>
       </c>
       <c r="C12">
-        <v>0.6361209752766115</v>
+        <v>0.2683472207487512</v>
       </c>
       <c r="D12">
-        <v>0.3434099835137658</v>
+        <v>0.1161741208323122</v>
       </c>
       <c r="E12">
-        <v>0.03379467127988045</v>
+        <v>0.09465724342046755</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007709534140758628</v>
+        <v>0.002447711725161265</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2267882077308911</v>
+        <v>0.2052247362764774</v>
       </c>
       <c r="M12">
-        <v>0.7054924757549159</v>
+        <v>0.3396654884962942</v>
       </c>
       <c r="N12">
-        <v>0.5560690080164115</v>
+        <v>1.468752694138894</v>
       </c>
       <c r="O12">
-        <v>3.929518935056706</v>
+        <v>4.184407380262144</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.241327548687707</v>
+        <v>1.725151342544564</v>
       </c>
       <c r="C13">
-        <v>0.6331963414755535</v>
+        <v>0.2674445372769583</v>
       </c>
       <c r="D13">
-        <v>0.3414366227654142</v>
+        <v>0.115664671109343</v>
       </c>
       <c r="E13">
-        <v>0.03385104490286617</v>
+        <v>0.0946919416303218</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007712719118814589</v>
+        <v>0.002447898948999769</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2257146856952659</v>
+        <v>0.2050068870722157</v>
       </c>
       <c r="M13">
-        <v>0.7016248301949872</v>
+        <v>0.3386746456904675</v>
       </c>
       <c r="N13">
-        <v>0.5585598616343468</v>
+        <v>1.469766529315587</v>
       </c>
       <c r="O13">
-        <v>3.912941081568249</v>
+        <v>4.182234123224362</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.164349749921087</v>
+        <v>1.704587489002733</v>
       </c>
       <c r="C14">
-        <v>0.6236656130681126</v>
+        <v>0.2644987697826764</v>
       </c>
       <c r="D14">
-        <v>0.3350143322638814</v>
+        <v>0.1140042767693359</v>
       </c>
       <c r="E14">
-        <v>0.03403589649722294</v>
+        <v>0.094805701607098</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007723124649256216</v>
+        <v>0.002448512406259177</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2222228591325575</v>
+        <v>0.204298815135914</v>
       </c>
       <c r="M14">
-        <v>0.6890312247301864</v>
+        <v>0.3354461830510616</v>
       </c>
       <c r="N14">
-        <v>0.5667277000961253</v>
+        <v>1.473088208616181</v>
       </c>
       <c r="O14">
-        <v>3.859174118072303</v>
+        <v>4.175213978912495</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.11727684933453</v>
+        <v>1.691999972819133</v>
       </c>
       <c r="C15">
-        <v>0.6178330859295613</v>
+        <v>0.2626929279707326</v>
       </c>
       <c r="D15">
-        <v>0.331090499406514</v>
+        <v>0.1129880293750603</v>
       </c>
       <c r="E15">
-        <v>0.03414989286548398</v>
+        <v>0.09487584527189563</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007729512828195309</v>
+        <v>0.002448890381107657</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2200909515212857</v>
+        <v>0.2038669312850914</v>
       </c>
       <c r="M15">
-        <v>0.6813320814576969</v>
+        <v>0.3334708803267503</v>
       </c>
       <c r="N15">
-        <v>0.5717647377958173</v>
+        <v>1.475134619950833</v>
       </c>
       <c r="O15">
-        <v>3.826465255218636</v>
+        <v>4.170965645484443</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.848656310152307</v>
+        <v>1.619995950375085</v>
       </c>
       <c r="C16">
-        <v>0.5844840964267632</v>
+        <v>0.2523218490057957</v>
       </c>
       <c r="D16">
-        <v>0.3087503100596933</v>
+        <v>0.1071764307887264</v>
       </c>
       <c r="E16">
-        <v>0.03481483999076218</v>
+        <v>0.09528490304871107</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007766350352017431</v>
+        <v>0.002451090400619111</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2079760075197896</v>
+        <v>0.2014200608413574</v>
       </c>
       <c r="M16">
-        <v>0.6374270920345069</v>
+        <v>0.3221853992232369</v>
       </c>
       <c r="N16">
-        <v>0.6011394597215958</v>
+        <v>1.487042331874466</v>
       </c>
       <c r="O16">
-        <v>3.642339755443459</v>
+        <v>4.147411809376251</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.684812224889924</v>
+        <v>1.575940435508528</v>
       </c>
       <c r="C17">
-        <v>0.5640853848415475</v>
+        <v>0.2459394956053416</v>
       </c>
       <c r="D17">
-        <v>0.2951672922896051</v>
+        <v>0.1036219649874681</v>
       </c>
       <c r="E17">
-        <v>0.03523306593094921</v>
+        <v>0.0955421818205302</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007789161464485835</v>
+        <v>0.002452470448357173</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2006306442247023</v>
+        <v>0.199944066902205</v>
       </c>
       <c r="M17">
-        <v>0.6106734621642218</v>
+        <v>0.3152927247277546</v>
       </c>
       <c r="N17">
-        <v>0.6196022601909998</v>
+        <v>1.494508328531312</v>
       </c>
       <c r="O17">
-        <v>3.532204332257947</v>
+        <v>4.13366772457249</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.590895355829616</v>
+        <v>1.550643992265918</v>
       </c>
       <c r="C18">
-        <v>0.5523718957047947</v>
+        <v>0.2422612012081231</v>
       </c>
       <c r="D18">
-        <v>0.2873964303118299</v>
+        <v>0.1015814695743558</v>
       </c>
       <c r="E18">
-        <v>0.03547735828568288</v>
+        <v>0.09569249228930587</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007802362876366395</v>
+        <v>0.002453275416381682</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1964359833573326</v>
+        <v>0.1991043414068514</v>
       </c>
       <c r="M18">
-        <v>0.5953473474397484</v>
+        <v>0.3113395279494782</v>
       </c>
       <c r="N18">
-        <v>0.6303794288658597</v>
+        <v>1.498861695737983</v>
       </c>
       <c r="O18">
-        <v>3.469840207175537</v>
+        <v>4.126021350388186</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.559149647636218</v>
+        <v>1.542086483062178</v>
       </c>
       <c r="C19">
-        <v>0.5484089817103097</v>
+        <v>0.2410145370745056</v>
       </c>
       <c r="D19">
-        <v>0.2847722331906937</v>
+        <v>0.100891267986114</v>
       </c>
       <c r="E19">
-        <v>0.03556070953061763</v>
+        <v>0.0957437853296117</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007806846843392474</v>
+        <v>0.002453549891099338</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1950207746456982</v>
+        <v>0.198821610481275</v>
       </c>
       <c r="M19">
-        <v>0.5901683982117092</v>
+        <v>0.3100029859398248</v>
       </c>
       <c r="N19">
-        <v>0.6340550714328259</v>
+        <v>1.500345821467249</v>
       </c>
       <c r="O19">
-        <v>3.448888695129682</v>
+        <v>4.123476842616299</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.702219824779434</v>
+        <v>1.580625763142677</v>
       </c>
       <c r="C20">
-        <v>0.5662548053326475</v>
+        <v>0.2466196676535901</v>
       </c>
       <c r="D20">
-        <v>0.2966088406794398</v>
+        <v>0.1039999358866197</v>
       </c>
       <c r="E20">
-        <v>0.03518815698224986</v>
+        <v>0.09551455291013311</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000778672485870232</v>
+        <v>0.002452322381225757</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2014094081516902</v>
+        <v>0.200100234217814</v>
       </c>
       <c r="M20">
-        <v>0.613514929250556</v>
+        <v>0.3160252944273765</v>
       </c>
       <c r="N20">
-        <v>0.6176204224435011</v>
+        <v>1.493707440404732</v>
       </c>
       <c r="O20">
-        <v>3.543825539946852</v>
+        <v>4.135104006185315</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.186943537948594</v>
+        <v>1.710625834284542</v>
       </c>
       <c r="C21">
-        <v>0.6264638942061254</v>
+        <v>0.2653643204725711</v>
       </c>
       <c r="D21">
-        <v>0.3368986108576024</v>
+        <v>0.114491809680132</v>
       </c>
       <c r="E21">
-        <v>0.03398144047918761</v>
+        <v>0.09477219119510227</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007720065290739019</v>
+        <v>0.002448331757891175</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2232470374060114</v>
+        <v>0.2045064115737318</v>
       </c>
       <c r="M21">
-        <v>0.692727159472021</v>
+        <v>0.3363939975622827</v>
       </c>
       <c r="N21">
-        <v>0.5643214938101639</v>
+        <v>1.472110094264982</v>
       </c>
       <c r="O21">
-        <v>3.874919575469448</v>
+        <v>4.177265187495038</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.507169198797328</v>
+        <v>1.79596676983715</v>
       </c>
       <c r="C22">
-        <v>0.6660447612962912</v>
+        <v>0.2775491305636137</v>
       </c>
       <c r="D22">
-        <v>0.3636696654714484</v>
+        <v>0.1213842655303381</v>
       </c>
       <c r="E22">
-        <v>0.0332270930573948</v>
+        <v>0.09430771702186114</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007677156155963566</v>
+        <v>0.002445822830617291</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2378250558397781</v>
+        <v>0.2074680650088254</v>
       </c>
       <c r="M22">
-        <v>0.7451471134545784</v>
+        <v>0.3498057672668935</v>
       </c>
       <c r="N22">
-        <v>0.5309964596602406</v>
+        <v>1.458522412477626</v>
       </c>
       <c r="O22">
-        <v>4.101231022586205</v>
+        <v>4.207133236628238</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.335915994123866</v>
+        <v>1.750384356980589</v>
       </c>
       <c r="C23">
-        <v>0.6448955738262043</v>
+        <v>0.2710519272619365</v>
       </c>
       <c r="D23">
-        <v>0.3493377909608171</v>
+        <v>0.1177023761372595</v>
       </c>
       <c r="E23">
-        <v>0.03362651192175381</v>
+        <v>0.09455372383504068</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000770000078956766</v>
+        <v>0.002447152845157596</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2300146225172881</v>
+        <v>0.2058798851844728</v>
       </c>
       <c r="M23">
-        <v>0.7171050344618806</v>
+        <v>0.3426385776663352</v>
       </c>
       <c r="N23">
-        <v>0.5486393308921222</v>
+        <v>1.465726107136922</v>
       </c>
       <c r="O23">
-        <v>3.979476657937369</v>
+        <v>4.190980035009318</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.694348985034992</v>
+        <v>1.578507427840805</v>
       </c>
       <c r="C24">
-        <v>0.5652739673449219</v>
+        <v>0.2463121898841791</v>
       </c>
       <c r="D24">
-        <v>0.2959569984087267</v>
+        <v>0.1038290458600954</v>
       </c>
       <c r="E24">
-        <v>0.03520844834100889</v>
+        <v>0.09552703647222449</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007787826176962</v>
+        <v>0.002452389286384384</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2010572412721103</v>
+        <v>0.2000296034277795</v>
       </c>
       <c r="M24">
-        <v>0.6122301320348384</v>
+        <v>0.3156940700852147</v>
       </c>
       <c r="N24">
-        <v>0.618515905753922</v>
+        <v>1.49406933170947</v>
       </c>
       <c r="O24">
-        <v>3.538568632406566</v>
+        <v>4.134453868144021</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.014351208405003</v>
+        <v>1.394761711380909</v>
       </c>
       <c r="C25">
-        <v>0.4800997307320358</v>
+        <v>0.2193462688196917</v>
       </c>
       <c r="D25">
-        <v>0.239939837408869</v>
+        <v>0.08901476338748182</v>
       </c>
       <c r="E25">
-        <v>0.03705730606319801</v>
+        <v>0.09666604541710955</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007885691235945216</v>
+        <v>0.002458466240668969</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1709585851804292</v>
+        <v>0.1940719952863859</v>
       </c>
       <c r="M25">
-        <v>0.5014229392469076</v>
+        <v>0.2870619983918061</v>
       </c>
       <c r="N25">
-        <v>0.69987462993058</v>
+        <v>1.526902052738278</v>
       </c>
       <c r="O25">
-        <v>3.099993326176019</v>
+        <v>4.083372772845735</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_154/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_154/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.260887446824029</v>
+        <v>2.521237922308728</v>
       </c>
       <c r="C2">
-        <v>0.199249073379633</v>
+        <v>0.4177083834784128</v>
       </c>
       <c r="D2">
-        <v>0.07823181986877614</v>
+        <v>0.1997069073078421</v>
       </c>
       <c r="E2">
-        <v>0.09758177810482982</v>
+        <v>0.03853651385865686</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002463313228403287</v>
+        <v>0.0007960767958787027</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1899887431010754</v>
+        <v>0.1495931522862008</v>
       </c>
       <c r="M2">
-        <v>0.2663511255113491</v>
+        <v>0.4213394983393286</v>
       </c>
       <c r="N2">
-        <v>1.55301995052443</v>
+        <v>0.76444800742388</v>
       </c>
       <c r="O2">
-        <v>4.054209819659405</v>
+        <v>2.803284578847524</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.171044405421299</v>
+        <v>2.190533220325165</v>
       </c>
       <c r="C3">
-        <v>0.1854774821674425</v>
+        <v>0.3754992647952804</v>
       </c>
       <c r="D3">
-        <v>0.07099981640112674</v>
+        <v>0.1729239348752287</v>
       </c>
       <c r="E3">
-        <v>0.09825067771945184</v>
+        <v>0.03961041176053803</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00246683245833057</v>
+        <v>0.0008013678726701815</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1874107202957163</v>
+        <v>0.1355290211986215</v>
       </c>
       <c r="M3">
-        <v>0.2525465544461696</v>
+        <v>0.3677862004346437</v>
       </c>
       <c r="N3">
-        <v>1.571932313769199</v>
+        <v>0.8109086723835937</v>
       </c>
       <c r="O3">
-        <v>4.03968725914379</v>
+        <v>2.616047970437421</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.116318715562272</v>
+        <v>1.98882877100084</v>
       </c>
       <c r="C4">
-        <v>0.1769469899430902</v>
+        <v>0.3495819087612659</v>
       </c>
       <c r="D4">
-        <v>0.06659608434817699</v>
+        <v>0.1566729477647755</v>
       </c>
       <c r="E4">
-        <v>0.09868527736662824</v>
+        <v>0.04030436113897884</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002469109539887057</v>
+        <v>0.0008047212394685592</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1859212253667764</v>
+        <v>0.1270741087377303</v>
       </c>
       <c r="M4">
-        <v>0.2441849015072748</v>
+        <v>0.335194397246191</v>
       </c>
       <c r="N4">
-        <v>1.584142274297843</v>
+        <v>0.8407019506240552</v>
       </c>
       <c r="O4">
-        <v>4.033347244086116</v>
+        <v>2.507160216219319</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.09412854058948</v>
+        <v>1.906922211574425</v>
       </c>
       <c r="C5">
-        <v>0.1734520390257757</v>
+        <v>0.3390152050035056</v>
       </c>
       <c r="D5">
-        <v>0.06481071855714049</v>
+        <v>0.1500931935511289</v>
       </c>
       <c r="E5">
-        <v>0.09886839737826003</v>
+        <v>0.04059574862902227</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002470066794798043</v>
+        <v>0.0008061146866012155</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1853377690616043</v>
+        <v>0.1236707192706916</v>
       </c>
       <c r="M5">
-        <v>0.2408063511415222</v>
+        <v>0.3219771265948026</v>
       </c>
       <c r="N5">
-        <v>1.589268168265596</v>
+        <v>0.8531521675147875</v>
       </c>
       <c r="O5">
-        <v>4.031410647027315</v>
+        <v>2.46421147203219</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.090450605305278</v>
+        <v>1.89333778926536</v>
       </c>
       <c r="C6">
-        <v>0.1728705774511639</v>
+        <v>0.3372601607740222</v>
       </c>
       <c r="D6">
-        <v>0.06451481358588751</v>
+        <v>0.1490030352163956</v>
       </c>
       <c r="E6">
-        <v>0.09889916800542209</v>
+        <v>0.04064464984580884</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002470227520011855</v>
+        <v>0.0008063477108354885</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1852423084303254</v>
+        <v>0.1231080352464318</v>
       </c>
       <c r="M6">
-        <v>0.2402470939986472</v>
+        <v>0.3197860365505178</v>
       </c>
       <c r="N6">
-        <v>1.590128391285493</v>
+        <v>0.8552379339226643</v>
       </c>
       <c r="O6">
-        <v>4.031128126172547</v>
+        <v>2.457162941021522</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.116019000688254</v>
+        <v>1.987723041201491</v>
       </c>
       <c r="C7">
-        <v>0.176899931455651</v>
+        <v>0.3494394297596415</v>
       </c>
       <c r="D7">
-        <v>0.06657196913280927</v>
+        <v>0.1565840459862784</v>
       </c>
       <c r="E7">
-        <v>0.09868772261168868</v>
+        <v>0.04030825620491441</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002469122331048571</v>
+        <v>0.000804739922223777</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1859132613743668</v>
+        <v>0.1270280434231594</v>
       </c>
       <c r="M7">
-        <v>0.2441392200543504</v>
+        <v>0.3350158959977065</v>
       </c>
       <c r="N7">
-        <v>1.584210795677532</v>
+        <v>0.8408686183478444</v>
       </c>
       <c r="O7">
-        <v>4.033318508038235</v>
+        <v>2.506575362117985</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.229819029629994</v>
+        <v>2.406899831411693</v>
       </c>
       <c r="C8">
-        <v>0.1945161681263698</v>
+        <v>0.4031517287233726</v>
       </c>
       <c r="D8">
-        <v>0.07573056603993678</v>
+        <v>0.1904281136839217</v>
       </c>
       <c r="E8">
-        <v>0.09780746133108598</v>
+        <v>0.03889955960286695</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002464502583775546</v>
+        <v>0.000797879824801946</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1890804698584816</v>
+        <v>0.144704298413977</v>
       </c>
       <c r="M8">
-        <v>0.2615676317610536</v>
+        <v>0.4028086174201206</v>
       </c>
       <c r="N8">
-        <v>1.559416848011971</v>
+        <v>0.7801991394899712</v>
       </c>
       <c r="O8">
-        <v>4.048667003981052</v>
+        <v>2.737399641685414</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.456436650936894</v>
+        <v>3.242058944050996</v>
       </c>
       <c r="C9">
-        <v>0.2284673569338054</v>
+        <v>0.5087226992280023</v>
       </c>
       <c r="D9">
-        <v>0.09398531071138905</v>
+        <v>0.2586311259732668</v>
       </c>
       <c r="E9">
-        <v>0.09627042222974502</v>
+        <v>0.03641590378076009</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002456361598726715</v>
+        <v>0.0007852276927068682</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.196031707576438</v>
+        <v>0.1809622423361574</v>
       </c>
       <c r="M9">
-        <v>0.2966491485530725</v>
+        <v>0.5384841391971307</v>
       </c>
       <c r="N9">
-        <v>1.51554039127795</v>
+        <v>0.6717132160937318</v>
       </c>
       <c r="O9">
-        <v>4.099263395914733</v>
+        <v>3.243301746240832</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.625028815287237</v>
+        <v>3.867397516185008</v>
       </c>
       <c r="C10">
-        <v>0.2530491241708717</v>
+        <v>0.5868145383946626</v>
       </c>
       <c r="D10">
-        <v>0.1075825549869762</v>
+        <v>0.310306102336412</v>
       </c>
       <c r="E10">
-        <v>0.09525586136941655</v>
+        <v>0.03476762757445018</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.00245093444353396</v>
+        <v>0.0007763758216937772</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2015897316295252</v>
+        <v>0.2088183770310508</v>
       </c>
       <c r="M10">
-        <v>0.3229734278406227</v>
+        <v>0.6404885735514725</v>
       </c>
       <c r="N10">
-        <v>1.486198424283351</v>
+        <v>0.5990544521012549</v>
       </c>
       <c r="O10">
-        <v>4.149015209203526</v>
+        <v>3.655043962709044</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.702179869630299</v>
+        <v>4.155343384598098</v>
       </c>
       <c r="C11">
-        <v>0.2641535249395588</v>
+        <v>0.6225499454930059</v>
       </c>
       <c r="D11">
-        <v>0.1138098922097441</v>
+        <v>0.3342633883118395</v>
       </c>
       <c r="E11">
-        <v>0.09481908779182358</v>
+        <v>0.03405765054971743</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00244858455547759</v>
+        <v>0.0007724345399012126</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2042161171225132</v>
+        <v>0.2218147652028932</v>
       </c>
       <c r="M11">
-        <v>0.3350683127249425</v>
+        <v>0.6875580442851614</v>
       </c>
       <c r="N11">
-        <v>1.473478846064667</v>
+        <v>0.5676889289903304</v>
       </c>
       <c r="O11">
-        <v>4.174398501286362</v>
+        <v>3.85290595106153</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.73146027963287</v>
+        <v>4.26496340252811</v>
       </c>
       <c r="C12">
-        <v>0.2683472207487512</v>
+        <v>0.6361209752768957</v>
       </c>
       <c r="D12">
-        <v>0.1161741208323122</v>
+        <v>0.3434099835137658</v>
       </c>
       <c r="E12">
-        <v>0.09465724342046755</v>
+        <v>0.03379467127988223</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002447711725161265</v>
+        <v>0.0007709534140375451</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2052247362764774</v>
+        <v>0.2267882077308059</v>
       </c>
       <c r="M12">
-        <v>0.3396654884962942</v>
+        <v>0.7054924757549159</v>
       </c>
       <c r="N12">
-        <v>1.468752694138894</v>
+        <v>0.5560690080164257</v>
       </c>
       <c r="O12">
-        <v>4.184407380262144</v>
+        <v>3.929518935056706</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.725151342544564</v>
+        <v>4.24132754868765</v>
       </c>
       <c r="C13">
-        <v>0.2674445372769583</v>
+        <v>0.6331963414755535</v>
       </c>
       <c r="D13">
-        <v>0.115664671109343</v>
+        <v>0.3414366227654142</v>
       </c>
       <c r="E13">
-        <v>0.0946919416303218</v>
+        <v>0.03385104490286706</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002447898948999769</v>
+        <v>0.0007712719119489672</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2050068870722157</v>
+        <v>0.2257146856951806</v>
       </c>
       <c r="M13">
-        <v>0.3386746456904675</v>
+        <v>0.7016248301949872</v>
       </c>
       <c r="N13">
-        <v>1.469766529315587</v>
+        <v>0.5585598616343468</v>
       </c>
       <c r="O13">
-        <v>4.182234123224362</v>
+        <v>3.912941081568192</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.704587489002733</v>
+        <v>4.164349749920916</v>
       </c>
       <c r="C14">
-        <v>0.2644987697826764</v>
+        <v>0.6236656130682547</v>
       </c>
       <c r="D14">
-        <v>0.1140042767693359</v>
+        <v>0.3350143322638246</v>
       </c>
       <c r="E14">
-        <v>0.094805701607098</v>
+        <v>0.03403589649724248</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002448512406259177</v>
+        <v>0.0007723124649167463</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.204298815135914</v>
+        <v>0.2222228591325148</v>
       </c>
       <c r="M14">
-        <v>0.3354461830510616</v>
+        <v>0.6890312247302148</v>
       </c>
       <c r="N14">
-        <v>1.473088208616181</v>
+        <v>0.5667277000961306</v>
       </c>
       <c r="O14">
-        <v>4.175213978912495</v>
+        <v>3.859174118072303</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.691999972819133</v>
+        <v>4.117276849334644</v>
       </c>
       <c r="C15">
-        <v>0.2626929279707326</v>
+        <v>0.6178330859295613</v>
       </c>
       <c r="D15">
-        <v>0.1129880293750603</v>
+        <v>0.3310904994064856</v>
       </c>
       <c r="E15">
-        <v>0.09487584527189563</v>
+        <v>0.03414989286548686</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002448890381107657</v>
+        <v>0.0007729512827912569</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2038669312850914</v>
+        <v>0.2200909515213567</v>
       </c>
       <c r="M15">
-        <v>0.3334708803267503</v>
+        <v>0.681332081457704</v>
       </c>
       <c r="N15">
-        <v>1.475134619950833</v>
+        <v>0.5717647377958226</v>
       </c>
       <c r="O15">
-        <v>4.170965645484443</v>
+        <v>3.826465255218636</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.619995950375085</v>
+        <v>3.848656310152307</v>
       </c>
       <c r="C16">
-        <v>0.2523218490057957</v>
+        <v>0.5844840964267917</v>
       </c>
       <c r="D16">
-        <v>0.1071764307887264</v>
+        <v>0.3087503100598923</v>
       </c>
       <c r="E16">
-        <v>0.09528490304871107</v>
+        <v>0.03481483999075974</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002451090400619111</v>
+        <v>0.0007766350352675299</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2014200608413574</v>
+        <v>0.2079760075196901</v>
       </c>
       <c r="M16">
-        <v>0.3221853992232369</v>
+        <v>0.6374270920344998</v>
       </c>
       <c r="N16">
-        <v>1.487042331874466</v>
+        <v>0.6011394597216491</v>
       </c>
       <c r="O16">
-        <v>4.147411809376251</v>
+        <v>3.642339755443459</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.575940435508528</v>
+        <v>3.684812224890038</v>
       </c>
       <c r="C17">
-        <v>0.2459394956053416</v>
+        <v>0.5640853848414054</v>
       </c>
       <c r="D17">
-        <v>0.1036219649874681</v>
+        <v>0.2951672922895909</v>
       </c>
       <c r="E17">
-        <v>0.0955421818205302</v>
+        <v>0.03523306593094655</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002452470448357173</v>
+        <v>0.0007789161464558797</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.199944066902205</v>
+        <v>0.2006306442246881</v>
       </c>
       <c r="M17">
-        <v>0.3152927247277546</v>
+        <v>0.6106734621642005</v>
       </c>
       <c r="N17">
-        <v>1.494508328531312</v>
+        <v>0.6196022601909394</v>
       </c>
       <c r="O17">
-        <v>4.13366772457249</v>
+        <v>3.532204332258118</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.550643992265918</v>
+        <v>3.590895355829502</v>
       </c>
       <c r="C18">
-        <v>0.2422612012081231</v>
+        <v>0.55237189570488</v>
       </c>
       <c r="D18">
-        <v>0.1015814695743558</v>
+        <v>0.287396430311901</v>
       </c>
       <c r="E18">
-        <v>0.09569249228930587</v>
+        <v>0.03547735828568843</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002453275416381682</v>
+        <v>0.0007802362875729759</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1991043414068514</v>
+        <v>0.1964359833572189</v>
       </c>
       <c r="M18">
-        <v>0.3113395279494782</v>
+        <v>0.5953473474397484</v>
       </c>
       <c r="N18">
-        <v>1.498861695737983</v>
+        <v>0.6303794288658651</v>
       </c>
       <c r="O18">
-        <v>4.126021350388186</v>
+        <v>3.469840207175508</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.542086483062178</v>
+        <v>3.559149647636275</v>
       </c>
       <c r="C19">
-        <v>0.2410145370745056</v>
+        <v>0.548408981710196</v>
       </c>
       <c r="D19">
-        <v>0.100891267986114</v>
+        <v>0.2847722331907079</v>
       </c>
       <c r="E19">
-        <v>0.0957437853296117</v>
+        <v>0.03556070953061896</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002453549891099338</v>
+        <v>0.0007806846843606673</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.198821610481275</v>
+        <v>0.195020774645613</v>
       </c>
       <c r="M19">
-        <v>0.3100029859398248</v>
+        <v>0.5901683982117163</v>
       </c>
       <c r="N19">
-        <v>1.500345821467249</v>
+        <v>0.6340550714327726</v>
       </c>
       <c r="O19">
-        <v>4.123476842616299</v>
+        <v>3.44888869512971</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.580625763142677</v>
+        <v>3.702219824779377</v>
       </c>
       <c r="C20">
-        <v>0.2466196676535901</v>
+        <v>0.5662548053326475</v>
       </c>
       <c r="D20">
-        <v>0.1039999358866197</v>
+        <v>0.2966088406792267</v>
       </c>
       <c r="E20">
-        <v>0.09551455291013311</v>
+        <v>0.03518815698222899</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002452322381225757</v>
+        <v>0.0007786724858984343</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.200100234217814</v>
+        <v>0.2014094081517754</v>
       </c>
       <c r="M20">
-        <v>0.3160252944273765</v>
+        <v>0.6135149292505631</v>
       </c>
       <c r="N20">
-        <v>1.493707440404732</v>
+        <v>0.6176204224435047</v>
       </c>
       <c r="O20">
-        <v>4.135104006185315</v>
+        <v>3.543825539946909</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.710625834284542</v>
+        <v>4.18694353794865</v>
       </c>
       <c r="C21">
-        <v>0.2653643204725711</v>
+        <v>0.6264638942059833</v>
       </c>
       <c r="D21">
-        <v>0.114491809680132</v>
+        <v>0.3368986108575882</v>
       </c>
       <c r="E21">
-        <v>0.09477219119510227</v>
+        <v>0.03398144047921159</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002448331757891175</v>
+        <v>0.000772006529110319</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2045064115737318</v>
+        <v>0.2232470374058124</v>
       </c>
       <c r="M21">
-        <v>0.3363939975622827</v>
+        <v>0.6927271594720281</v>
       </c>
       <c r="N21">
-        <v>1.472110094264982</v>
+        <v>0.5643214938101409</v>
       </c>
       <c r="O21">
-        <v>4.177265187495038</v>
+        <v>3.874919575469505</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.79596676983715</v>
+        <v>4.507169198797214</v>
       </c>
       <c r="C22">
-        <v>0.2775491305636137</v>
+        <v>0.6660447612961207</v>
       </c>
       <c r="D22">
-        <v>0.1213842655303381</v>
+        <v>0.36366966547142</v>
       </c>
       <c r="E22">
-        <v>0.09430771702186114</v>
+        <v>0.0332270930573948</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002445822830617291</v>
+        <v>0.0007677156155667977</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2074680650088254</v>
+        <v>0.2378250558398349</v>
       </c>
       <c r="M22">
-        <v>0.3498057672668935</v>
+        <v>0.7451471134545713</v>
       </c>
       <c r="N22">
-        <v>1.458522412477626</v>
+        <v>0.5309964596602352</v>
       </c>
       <c r="O22">
-        <v>4.207133236628238</v>
+        <v>4.101231022586148</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.750384356980589</v>
+        <v>4.335915994123752</v>
       </c>
       <c r="C23">
-        <v>0.2710519272619365</v>
+        <v>0.6448955738262327</v>
       </c>
       <c r="D23">
-        <v>0.1177023761372595</v>
+        <v>0.3493377909607318</v>
       </c>
       <c r="E23">
-        <v>0.09455372383504068</v>
+        <v>0.03362651192175381</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002447152845157596</v>
+        <v>0.0007700000789679917</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2058798851844728</v>
+        <v>0.2300146225173307</v>
       </c>
       <c r="M23">
-        <v>0.3426385776663352</v>
+        <v>0.7171050344618664</v>
       </c>
       <c r="N23">
-        <v>1.465726107136922</v>
+        <v>0.5486393308921134</v>
       </c>
       <c r="O23">
-        <v>4.190980035009318</v>
+        <v>3.979476657937312</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.578507427840805</v>
+        <v>3.694348985034821</v>
       </c>
       <c r="C24">
-        <v>0.2463121898841791</v>
+        <v>0.5652739673447797</v>
       </c>
       <c r="D24">
-        <v>0.1038290458600954</v>
+        <v>0.2959569984088262</v>
       </c>
       <c r="E24">
-        <v>0.09552703647222449</v>
+        <v>0.03520844834099157</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002452389286384384</v>
+        <v>0.0007787826176961093</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2000296034277795</v>
+        <v>0.201057241272153</v>
       </c>
       <c r="M24">
-        <v>0.3156940700852147</v>
+        <v>0.6122301320348384</v>
       </c>
       <c r="N24">
-        <v>1.49406933170947</v>
+        <v>0.6185159057539877</v>
       </c>
       <c r="O24">
-        <v>4.134453868144021</v>
+        <v>3.538568632406509</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.394761711380909</v>
+        <v>3.014351208404719</v>
       </c>
       <c r="C25">
-        <v>0.2193462688196917</v>
+        <v>0.4800997307320358</v>
       </c>
       <c r="D25">
-        <v>0.08901476338748182</v>
+        <v>0.2399398374087838</v>
       </c>
       <c r="E25">
-        <v>0.09666604541710955</v>
+        <v>0.03705730606319912</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002458466240668969</v>
+        <v>0.0007885691235610399</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1940719952863859</v>
+        <v>0.1709585851805073</v>
       </c>
       <c r="M25">
-        <v>0.2870619983918061</v>
+        <v>0.5014229392469076</v>
       </c>
       <c r="N25">
-        <v>1.526902052738278</v>
+        <v>0.6998746299306422</v>
       </c>
       <c r="O25">
-        <v>4.083372772845735</v>
+        <v>3.099993326175991</v>
       </c>
     </row>
   </sheetData>
